--- a/manuscript/firstDraft/Indel_Stats.xlsx
+++ b/manuscript/firstDraft/Indel_Stats.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projects\Dresequencing\Dreseq_github\manuscript\firstDraft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\corrinne\D_Cottons_USDA\manuscript\firstDraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -130,8 +130,8 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -181,9 +181,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
@@ -1579,7 +1579,7 @@
         <v>0.2198782</v>
       </c>
       <c r="C36" s="7">
-        <f t="shared" ref="C36:C42" si="13">$B36*1000*$C$2/B20</f>
+        <f t="shared" ref="C36:C41" si="13">$B36*1000*$C$2/B20</f>
         <v>3.9096774376895604</v>
       </c>
       <c r="D36" s="7">
